--- a/biology/Botanique/Arboretum_Robert_Lenoir/Arboretum_Robert_Lenoir.xlsx
+++ b/biology/Botanique/Arboretum_Robert_Lenoir/Arboretum_Robert_Lenoir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Arboretum Robert Lenoir est situé au bord de l'Ourthe sur le territoire de la commune de Rendeux (Belgique) à une altitude variant entre 200 et 350 m.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arboretum Robert Lenoir fut planté de façon non conventionnelle de 1937 à 1987 par le passionné de dendrologie qu'était Robert Lenoir et est devenu, au fil des années, non seulement le plus attrayant, mais aussi le plus important en Région wallonne.
 En effet, il abrite de nombreuses essences fort rares et compte plus de 3 100 espèces d’arbres, arbustes et plantes vivaces différents. On y trouve des collections d'érables, de fusains, de magnolias, de prunus, de sorbiers et de rhododendrons. On peut y admirer plusieurs spécimens d'arbres qui sont les champions de leur espèce en Belgique.
